--- a/Asset Data/IGP/Asset_Data_IGP/Cement/cement_plants_main.xlsx
+++ b/Asset Data/IGP/Asset_Data_IGP/Cement/cement_plants_main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\IGP\Asset_Data_IGP\Cement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1D62A12-07A4-43F6-ACC9-0AEE1EEFC31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F119FA8C-BF48-4F07-A135-29CD32B7870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB306F61-F763-4231-9C1E-DF829388B41E}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="cement_plants_main" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1550,11 +1563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C94D43-4DC7-4001-B92D-0EF55408347F}">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
